--- a/SpMVC_ReadBook/독서록 프로젝트 테이블 명세.xlsx
+++ b/SpMVC_ReadBook/독서록 프로젝트 테이블 명세.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -111,6 +111,196 @@
   </si>
   <si>
     <t>구입한 도서정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>isbn</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(355)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(2000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보링크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입가겨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubdate</t>
+  </si>
+  <si>
+    <t>buydate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyprice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buystore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(2000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(255)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일렬번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -154,6 +344,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋음"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -175,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -376,13 +573,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,6 +687,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,13 +1033,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J10" sqref="I10:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
@@ -1470,7 +1685,7 @@
     <col min="16141" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
@@ -1495,7 +1710,7 @@
       </c>
       <c r="L1" s="30"/>
     </row>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1731,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="27"/>
     </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1533,7 +1748,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1568,44 +1783,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="G7" s="14"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1613,14 +1856,22 @@
       <c r="K7" s="4"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1628,14 +1879,22 @@
       <c r="K8" s="4"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="G9" s="14"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1643,14 +1902,22 @@
       <c r="K9" s="4"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1658,14 +1925,22 @@
       <c r="K10" s="4"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1673,14 +1948,22 @@
       <c r="K11" s="4"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1688,14 +1971,22 @@
       <c r="K12" s="4"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="10">
         <v>9</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1703,14 +1994,22 @@
       <c r="K13" s="4"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
+      <c r="C14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1718,14 +2017,22 @@
       <c r="K14" s="4"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="10">
         <v>11</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1733,14 +2040,22 @@
       <c r="K15" s="4"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="10">
         <v>12</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1748,14 +2063,22 @@
       <c r="K16" s="4"/>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="10">
         <v>13</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1763,14 +2086,22 @@
       <c r="K17" s="4"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="10">
         <v>14</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1778,14 +2109,14 @@
       <c r="K18" s="4"/>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="10">
         <v>15</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -1793,20 +2124,26 @@
       <c r="K19" s="11"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B20" s="12">
         <v>16</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/SpMVC_ReadBook/독서록 프로젝트 테이블 명세.xlsx
+++ b/SpMVC_ReadBook/독서록 프로젝트 테이블 명세.xlsx
@@ -296,11 +296,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PRMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -661,6 +661,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -687,9 +690,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,7 +1036,7 @@
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J10" sqref="I10:J10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1692,23 +1692,23 @@
       <c r="C1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="13">
         <v>44095</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="16" t="s">
@@ -1717,36 +1717,36 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="29" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B4" s="5" t="s">
@@ -1793,7 +1793,7 @@
       <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="22" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1818,14 +1818,14 @@
       <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="22" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1843,7 +1843,7 @@
       <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="22" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1866,7 +1866,7 @@
       <c r="D8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="22" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1889,7 +1889,7 @@
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="22" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1912,7 +1912,7 @@
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -1935,7 +1935,7 @@
       <c r="D11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="22" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -1958,7 +1958,7 @@
       <c r="D12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="22" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="14" t="s">
@@ -1981,7 +1981,7 @@
       <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="22" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -2004,7 +2004,7 @@
       <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="22" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -2027,7 +2027,7 @@
       <c r="D15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="22" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="4" t="s">

--- a/SpMVC_ReadBook/독서록 프로젝트 테이블 명세.xlsx
+++ b/SpMVC_ReadBook/독서록 프로젝트 테이블 명세.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="도서정보 테이블 명세" sheetId="2" r:id="rId1"/>
+    <sheet name="테이블 명세" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -102,54 +102,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_books</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>김창희</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구입한 도서정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>discount</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t>isbn</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>문자열(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(355)</t>
+    <t>매입매출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_IOLIST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과세여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -157,114 +166,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(2000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세정보링크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isbn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구입일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>문자열(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문자열(15)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구입가겨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구입처</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pubdate</t>
-  </si>
-  <si>
-    <t>buydate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyprice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buystore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(13)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(2000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(15)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAR(10)</t>
+    <t>문자열(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -272,27 +190,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NVARCHAR2(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(255)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일렬번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(13)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -311,7 +221,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -351,6 +261,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -594,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +607,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L21"/>
+  <dimension ref="B1:O21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1685,7 +1605,7 @@
     <col min="16141" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
@@ -1703,19 +1623,19 @@
       </c>
       <c r="I1" s="29"/>
       <c r="J1" s="13">
-        <v>44095</v>
+        <v>44179</v>
       </c>
       <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="31"/>
     </row>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
@@ -1726,17 +1646,17 @@
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="27"/>
       <c r="L2" s="28"/>
     </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -1748,7 +1668,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1783,71 +1703,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B6" s="10">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B7" s="10">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="4"/>
@@ -1856,21 +1774,21 @@
       <c r="K7" s="4"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B8" s="10">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1879,21 +1797,21 @@
       <c r="K8" s="4"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B9" s="10">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="4"/>
@@ -1902,21 +1820,21 @@
       <c r="K9" s="4"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B10" s="10">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>63</v>
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1925,21 +1843,21 @@
       <c r="K10" s="4"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B11" s="10">
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>63</v>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="4"/>
@@ -1947,22 +1865,23 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="19"/>
+      <c r="O11" s="32"/>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B12" s="10">
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>67</v>
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1971,21 +1890,21 @@
       <c r="K12" s="4"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="10">
         <v>9</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1994,22 +1913,20 @@
       <c r="K13" s="4"/>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="10">
         <v>10</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2017,22 +1934,20 @@
       <c r="K14" s="4"/>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="10">
         <v>11</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>61</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2040,22 +1955,20 @@
       <c r="K15" s="4"/>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="10">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>62</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2067,18 +1980,10 @@
       <c r="B17" s="10">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2090,18 +1995,10 @@
       <c r="B18" s="10">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
